--- a/NformTester/NformTester/Keywordscripts/600.20.30.120_UserWithoutAllActionRightsCanNotDeleteActionSet.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.120_UserWithoutAllActionRightsCanNotDeleteActionSet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -3684,18 +3684,14 @@
     <t>;Clear configuration</t>
   </si>
   <si>
+    <t>"Write-data"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"Write-data"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Select</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3757,6 +3753,10 @@
   <si>
     <t>Pause</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4006,21 +4006,7 @@
     <cellStyle name="常规 2 4" xfId="3"/>
     <cellStyle name="超链接" xfId="4" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -4761,8 +4747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4834,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4894,7 +4880,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>
@@ -4925,7 +4911,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>577</v>
@@ -4935,13 +4921,13 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>823</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="J5" s="20" t="s">
         <v>824</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>825</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -5472,7 +5458,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="5"/>
@@ -5518,7 +5504,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>317</v>
@@ -5543,7 +5529,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>317</v>
@@ -5552,10 +5538,10 @@
         <v>319</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>818</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>819</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="5"/>
@@ -5608,7 +5594,7 @@
         <v>321</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H28" s="11">
         <v>1</v>
@@ -5655,7 +5641,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>310</v>
@@ -5730,7 +5716,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>317</v>
@@ -5742,7 +5728,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="5"/>
@@ -5757,7 +5743,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>317</v>
@@ -5769,7 +5755,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="5"/>
@@ -5796,7 +5782,7 @@
         <v>13</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="5"/>
@@ -5840,7 +5826,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>317</v>
@@ -6553,7 +6539,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -6726,7 +6712,7 @@
         <v>7</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>809</v>
@@ -6755,7 +6741,7 @@
         <v>7</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>809</v>
@@ -6784,7 +6770,7 @@
         <v>7</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>809</v>
@@ -6914,7 +6900,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>197</v>
@@ -7243,7 +7229,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>19</v>
@@ -7267,10 +7253,10 @@
         <v>95</v>
       </c>
       <c r="D96" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E96" s="11" t="s">
         <v>831</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>832</v>
       </c>
       <c r="F96" s="20" t="s">
         <v>578</v>
@@ -7279,7 +7265,7 @@
         <v>3</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
@@ -7293,10 +7279,10 @@
         <v>96</v>
       </c>
       <c r="D97" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E97" s="11" t="s">
         <v>831</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>832</v>
       </c>
       <c r="F97" s="20" t="s">
         <v>184</v>
@@ -7317,7 +7303,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E98" s="20" t="s">
         <v>585</v>
@@ -7341,10 +7327,10 @@
         <v>98</v>
       </c>
       <c r="D99" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E99" s="11" t="s">
         <v>831</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>832</v>
       </c>
       <c r="F99" s="20" t="s">
         <v>99</v>
@@ -7368,7 +7354,7 @@
         <v>797</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F100" s="20">
         <v>3</v>
@@ -7621,18 +7607,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N63">
-    <cfRule type="cellIs" dxfId="5" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="41" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="42" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N94:N100">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.120_UserWithoutAllActionRightsCanNotDeleteActionSet.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.120_UserWithoutAllActionRightsCanNotDeleteActionSet.xlsx
@@ -3696,10 +3696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_1$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InputCell</t>
   </si>
   <si>
@@ -3756,6 +3752,10 @@
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_ACTION_SearchStart_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4747,8 +4747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="E67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4820,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4880,7 +4880,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>
@@ -4911,7 +4911,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>577</v>
@@ -4921,13 +4921,13 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
+        <v>821</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="J5" s="20" t="s">
         <v>823</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>824</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -5504,7 +5504,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>317</v>
@@ -5541,7 +5541,7 @@
         <v>817</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>818</v>
+        <v>834</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="5"/>
@@ -5594,7 +5594,7 @@
         <v>321</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H28" s="11">
         <v>1</v>
@@ -5728,7 +5728,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="5"/>
@@ -5755,7 +5755,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="5"/>
@@ -5781,8 +5781,8 @@
       <c r="G35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>818</v>
+      <c r="H35" s="11" t="s">
+        <v>834</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="5"/>
@@ -6539,7 +6539,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -6712,7 +6712,7 @@
         <v>7</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>809</v>
@@ -6741,7 +6741,7 @@
         <v>7</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>809</v>
@@ -6770,7 +6770,7 @@
         <v>7</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>809</v>
@@ -6900,7 +6900,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>197</v>
@@ -7229,7 +7229,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>19</v>
@@ -7253,10 +7253,10 @@
         <v>95</v>
       </c>
       <c r="D96" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="E96" s="11" t="s">
         <v>830</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>831</v>
       </c>
       <c r="F96" s="20" t="s">
         <v>578</v>
@@ -7265,7 +7265,7 @@
         <v>3</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
@@ -7279,10 +7279,10 @@
         <v>96</v>
       </c>
       <c r="D97" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="E97" s="11" t="s">
         <v>830</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>831</v>
       </c>
       <c r="F97" s="20" t="s">
         <v>184</v>
@@ -7303,7 +7303,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E98" s="20" t="s">
         <v>585</v>
@@ -7327,10 +7327,10 @@
         <v>98</v>
       </c>
       <c r="D99" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="E99" s="11" t="s">
         <v>830</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>831</v>
       </c>
       <c r="F99" s="20" t="s">
         <v>99</v>
@@ -7354,7 +7354,7 @@
         <v>797</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F100" s="20">
         <v>3</v>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.120_UserWithoutAllActionRightsCanNotDeleteActionSet.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.120_UserWithoutAllActionRightsCanNotDeleteActionSet.xlsx
@@ -3646,9 +3646,6 @@
     <t>"Write file testing"</t>
   </si>
   <si>
-    <t>"C:\Nform\test.txt"</t>
-  </si>
-  <si>
     <t>"test"</t>
   </si>
   <si>
@@ -3756,6 +3753,10 @@
   </si>
   <si>
     <t>$NAME_ACTION_SearchStart_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\test.txt"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4747,8 +4748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="E58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4820,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4880,7 +4881,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>
@@ -4911,7 +4912,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>577</v>
@@ -4921,13 +4922,13 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>821</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="J5" s="20" t="s">
         <v>822</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>823</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -5280,7 +5281,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>803</v>
+        <v>834</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -5311,7 +5312,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -5458,7 +5459,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="5"/>
@@ -5487,7 +5488,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="5"/>
@@ -5504,7 +5505,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>317</v>
@@ -5529,7 +5530,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>317</v>
@@ -5538,10 +5539,10 @@
         <v>319</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="5"/>
@@ -5594,7 +5595,7 @@
         <v>321</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H28" s="11">
         <v>1</v>
@@ -5641,7 +5642,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>310</v>
@@ -5716,7 +5717,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>317</v>
@@ -5728,7 +5729,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="5"/>
@@ -5743,7 +5744,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>317</v>
@@ -5755,7 +5756,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="5"/>
@@ -5782,7 +5783,7 @@
         <v>13</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="5"/>
@@ -5826,7 +5827,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>317</v>
@@ -5981,7 +5982,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -6083,7 +6084,7 @@
         <v>4</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -6109,7 +6110,7 @@
         <v>4</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -6207,10 +6208,10 @@
         <v>7</v>
       </c>
       <c r="H52" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>808</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>809</v>
       </c>
       <c r="J52" s="5" t="b">
         <v>0</v>
@@ -6321,7 +6322,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -6351,7 +6352,7 @@
         <v>4</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -6377,7 +6378,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -6403,7 +6404,7 @@
         <v>4</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -6429,7 +6430,7 @@
         <v>4</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
@@ -6455,7 +6456,7 @@
         <v>13</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -6539,7 +6540,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -6612,7 +6613,7 @@
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>795</v>
@@ -6712,10 +6713,10 @@
         <v>7</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J73" s="5" t="b">
         <v>0</v>
@@ -6741,10 +6742,10 @@
         <v>7</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J74" s="5" t="b">
         <v>0</v>
@@ -6770,10 +6771,10 @@
         <v>7</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J75" s="5" t="b">
         <v>0</v>
@@ -6810,7 +6811,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -6900,7 +6901,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>197</v>
@@ -7098,7 +7099,7 @@
         <v>56</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
@@ -7146,7 +7147,7 @@
         <v>56</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
@@ -7229,7 +7230,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>19</v>
@@ -7253,10 +7254,10 @@
         <v>95</v>
       </c>
       <c r="D96" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="E96" s="11" t="s">
         <v>829</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>830</v>
       </c>
       <c r="F96" s="20" t="s">
         <v>578</v>
@@ -7265,7 +7266,7 @@
         <v>3</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
@@ -7279,10 +7280,10 @@
         <v>96</v>
       </c>
       <c r="D97" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="E97" s="11" t="s">
         <v>829</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>830</v>
       </c>
       <c r="F97" s="20" t="s">
         <v>184</v>
@@ -7303,7 +7304,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E98" s="20" t="s">
         <v>585</v>
@@ -7327,10 +7328,10 @@
         <v>98</v>
       </c>
       <c r="D99" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="E99" s="11" t="s">
         <v>829</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>830</v>
       </c>
       <c r="F99" s="20" t="s">
         <v>99</v>
@@ -7354,7 +7355,7 @@
         <v>797</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F100" s="20">
         <v>3</v>
